--- a/Project/Gantt Chart.xlsx
+++ b/Project/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College_4th_sem\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16211650-EC49-438C-BC3E-199BCF658B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC6D0C-58FA-40D3-8B60-DC3493446D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{68C4E280-EA47-44F2-8534-3EAAF5173476}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7785" xr2:uid="{68C4E280-EA47-44F2-8534-3EAAF5173476}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,10 @@
     <t>--</t>
   </si>
   <si>
-    <t>Total days</t>
+    <t>Requirement</t>
   </si>
   <si>
-    <t>Requirement</t>
+    <t>Total weeks</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,12 +167,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,8 +186,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,22 +454,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -518,22 +518,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,7 +651,7 @@
                         <c:v>45380</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>45390</c:v>
+                        <c:v>45340</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1833,7 +1833,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,180 +1845,180 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>45320</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <f>C3</f>
         <v>45320</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f>C5+3</f>
         <v>45323</v>
       </c>
-      <c r="E5" s="5">
-        <f>D5-C5</f>
-        <v>3</v>
+      <c r="E5" s="3">
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11">
         <f>D5</f>
         <v>45323</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <f>C6+7</f>
         <v>45330</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" ref="E6:E8" si="0">D6-C6</f>
-        <v>7</v>
+      <c r="E6" s="3">
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
-        <f t="shared" ref="C7:C9" si="1">D6</f>
+      <c r="C7" s="11">
+        <f t="shared" ref="C7:C9" si="0">D6</f>
         <v>45330</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <f>C7+20</f>
         <v>45350</v>
       </c>
-      <c r="E7" s="5">
-        <f>D7-C7</f>
-        <v>20</v>
+      <c r="E7" s="3">
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
-        <f t="shared" si="1"/>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
         <v>45350</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <f>C8+25</f>
         <v>45375</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="E8" s="3">
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
-        <f t="shared" si="1"/>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
         <v>45375</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f>C9+5</f>
         <v>45380</v>
       </c>
-      <c r="E9" s="5">
-        <f>D9-C9</f>
-        <v>5</v>
+      <c r="E9" s="3">
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <f>C5</f>
         <v>45320</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <f>C5+E13+5</f>
-        <v>45390</v>
-      </c>
-      <c r="E10" s="7">
+        <v>45340</v>
+      </c>
+      <c r="E10" s="5">
         <f>E13</f>
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <f>SUM(E5:E9)+5</f>
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
